--- a/public/downloads/product.xlsx
+++ b/public/downloads/product.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradyhislop/jcauto/public/downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453C43C9-352E-554C-B35B-078E37D5828D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="27800" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -36,12 +42,6 @@
     <t>LastPurchaseCost</t>
   </si>
   <si>
-    <t>LastVendor</t>
-  </si>
-  <si>
-    <t>VendorPrice</t>
-  </si>
-  <si>
     <t>ProductLength (in)</t>
   </si>
   <si>
@@ -82,16 +82,25 @@
   </si>
   <si>
     <t>IsActive</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Sublocation</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +115,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -122,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -165,11 +181,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -186,6 +217,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,6 +229,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -243,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,9 +313,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,6 +365,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,34 +557,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="22" max="22" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -571,41 +643,47 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="X1" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:24" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
